--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_7_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_7_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4116162.140794852</v>
+        <v>4111829.655974161</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>73.80843085636933</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>344.4524256080903</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -819,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -873,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>155.4526127311941</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,19 +898,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>133.6517655569937</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>262.98102090663</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>120.2570633735995</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>121.43444236732</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>135.260060904611</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>112.8684711536877</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.05951385154749</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1299,7 +1299,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>99.44420492154083</v>
       </c>
     </row>
     <row r="11">
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560542</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,13 +1584,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>173.5740289795526</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.154082144414</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1666,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1773,7 +1773,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>1.294096136280567</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2004,22 +2004,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>87.61360486368916</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>10.63412424768206</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2055,7 +2055,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788180832</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,13 +2481,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>193.9962538432431</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428269</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2961,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>80.08971311158706</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>96.78074638267616</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3432,13 +3432,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>125.8152577453148</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3483,16 +3483,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>244.655117794415</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3556,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>28.23631843388033</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,16 +3717,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>185.0663491738889</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695521</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>53.22824985092608</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3957,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,10 +4137,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>24.8326660635311</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,13 +4191,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>245.8796921214428</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>957.4466652737744</v>
+        <v>2079.343073798764</v>
       </c>
       <c r="C2" t="n">
-        <v>957.4466652737744</v>
+        <v>1710.380556858352</v>
       </c>
       <c r="D2" t="n">
-        <v>882.8926947117852</v>
+        <v>1352.114858251602</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>966.3266056533573</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>555.3407008637498</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2048.575150942547</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>1717.512263598976</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W2" t="n">
-        <v>1717.512263598976</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X2" t="n">
-        <v>1344.046505337896</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y2" t="n">
-        <v>1344.046505337896</v>
+        <v>2465.942913862886</v>
       </c>
     </row>
     <row r="3">
@@ -4385,43 +4385,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1268.68094731003</v>
+        <v>982.8165910026955</v>
       </c>
       <c r="C5" t="n">
-        <v>1268.68094731003</v>
+        <v>613.8540740622839</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W5" t="n">
-        <v>2311.057514205145</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X5" t="n">
-        <v>2045.420119349963</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="Y5" t="n">
-        <v>1655.280787374151</v>
+        <v>1369.416431066817</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4646,43 +4646,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>394.4025473335336</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="C7" t="n">
-        <v>394.4025473335336</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D7" t="n">
-        <v>394.4025473335336</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
-        <v>246.4894537511405</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>576.0510121637733</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>576.0510121637733</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>576.0510121637733</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W7" t="n">
-        <v>576.0510121637733</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X7" t="n">
-        <v>576.0510121637733</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="Y7" t="n">
-        <v>576.0510121637733</v>
+        <v>473.4444960005474</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1019.519018857857</v>
+        <v>1705.877315537684</v>
       </c>
       <c r="C8" t="n">
-        <v>882.8926947117852</v>
+        <v>1336.914798597272</v>
       </c>
       <c r="D8" t="n">
-        <v>882.8926947117852</v>
+        <v>978.649099990522</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>592.8608473922777</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>181.8749426026702</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>167.9515385412611</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>167.9515385412611</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4819,37 +4819,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520779</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2169.72394915887</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>2169.72394915887</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>1796.25819089779</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y8" t="n">
-        <v>1406.118858921979</v>
+        <v>2092.477155601806</v>
       </c>
     </row>
     <row r="9">
@@ -4859,67 +4859,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598709</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>657.237808644352</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C10" t="n">
-        <v>488.3016257164451</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
-        <v>338.1849863041093</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600565</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600565</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600565</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600565</v>
+        <v>372.9958041606071</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,40 +5053,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1307.627092998424</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1547.449290305074</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1319.459739407056</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1098.667160263526</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5266,34 +5266,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5305,13 +5305,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>869.9745311434716</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C16" t="n">
-        <v>701.0383482155647</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>550.921708803229</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U16" t="n">
-        <v>2044.506784258106</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V16" t="n">
-        <v>1789.822296052219</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W16" t="n">
-        <v>1500.405126015259</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>1272.415575117241</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>1051.622995973711</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5512,16 +5512,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
         <v>2206.55866301478</v>
@@ -5530,10 +5530,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5597,25 +5597,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>870.3164745246296</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="C19" t="n">
-        <v>870.3164745246296</v>
+        <v>631.5645865368208</v>
       </c>
       <c r="D19" t="n">
-        <v>720.1998351122938</v>
+        <v>481.447947124485</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>333.5348535420919</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>186.6449060441816</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>186.6449060441816</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5703,22 +5703,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W19" t="n">
-        <v>1500.747069396417</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X19" t="n">
-        <v>1272.757518498399</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y19" t="n">
-        <v>1051.964939354869</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
     <row r="20">
@@ -5743,19 +5743,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5846,10 +5846,10 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2297.690135143765</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2815.530845237133</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>2646.594662309226</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>2646.594662309226</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>2646.594662309226</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>2646.594662309226</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>2479.398563024106</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4681.594624329724</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>4498.739789984628</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>4279.13832500757</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>3990.063098351768</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>3735.378610145881</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>3445.96144010892</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>3217.971889210903</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>2997.179310067373</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5977,40 +5977,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6071,16 +6071,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N24" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
         <v>2129.438138565707</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.58045691144</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>847.6442739835331</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1198.22892174168</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>1198.22892174168</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004712</v>
@@ -6214,22 +6214,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6241,10 +6241,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6308,22 +6308,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N27" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2757.723669558405</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>2588.787486630498</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>2588.787486630498</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>2588.787486630498</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>2588.787486630498</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>2421.591387345378</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673039</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V28" t="n">
-        <v>3677.571434467152</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W28" t="n">
-        <v>3388.154264430192</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>3160.164713532175</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>2939.372134388645</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6451,10 +6451,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6551,19 +6551,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N30" t="n">
-        <v>1670.092171589158</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>734.6461798836013</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>565.7099969556945</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>565.7099969556945</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>565.7099969556945</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6666,7 +6666,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6694,28 +6694,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6785,19 +6785,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M33" t="n">
-        <v>840.8417932021785</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N33" t="n">
-        <v>1468.439756756785</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>2020.349486996072</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>945.402603663004</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>847.6442739835331</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711974</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6928,37 +6928,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7019,19 +7019,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>1577.52840832642</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="G37" t="n">
         <v>317.6151975578602</v>
@@ -7122,25 +7122,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V37" t="n">
-        <v>1755.431557602304</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W37" t="n">
-        <v>1508.305175991783</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.315625093766</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2824.769373306003</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C40" t="n">
-        <v>2655.833190378096</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>2627.3116566065</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>2479.398563024106</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>2479.398563024106</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>2479.398563024106</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>3999.301626420637</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="V40" t="n">
-        <v>3744.61713821475</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W40" t="n">
-        <v>3455.19996817779</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X40" t="n">
-        <v>3227.210417279773</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>3006.417838136243</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7393,28 +7393,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7502,10 +7502,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>835.5837926935558</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>781.8178837532264</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1238.024836667326</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1017.232257523796</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7645,19 +7645,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355937</v>
@@ -7730,16 +7730,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452613</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718132</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O45" t="n">
         <v>2129.438138565707</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876693</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>555.8158034133954</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614391</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.547769317909</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8072,7 +8072,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>350.4438349360587</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142009</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,13 +23472,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>112.9489693570384</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23661,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>145.1398665102886</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23892,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>58.82035778288001</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>129.6605885985418</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.22910392194085</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>31.71340154579403</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.2291039219412</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>65.33133491134419</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>70.46607471595168</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25320,13 +25320,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>39.70888054695402</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>41.86788054217604</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>120.379154584332</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,16 +25605,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>101.1181252153552</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>114.0185712477017</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26025,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>142.4141550350967</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,13 +26079,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>40.30478226780133</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>609629.557522591</v>
+        <v>609629.5575225909</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>609629.5575225909</v>
+        <v>609629.557522591</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>609629.557522591</v>
+        <v>609629.5575225909</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>609629.5575225909</v>
+        <v>609629.557522591</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>609629.557522591</v>
+        <v>609629.5575225909</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>609629.5575225909</v>
+        <v>609629.557522591</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>609629.557522591</v>
+        <v>609629.5575225909</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>609629.5575225909</v>
+        <v>609629.557522591</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.7698642834</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.7698642832</v>
       </c>
       <c r="D2" t="n">
         <v>821041.7698642833</v>
       </c>
       <c r="E2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="F2" t="n">
         <v>807146.5996900066</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="H2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="I2" t="n">
         <v>807146.5996900061</v>
       </c>
-      <c r="G2" t="n">
-        <v>807146.599690006</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>807146.5996900063</v>
       </c>
-      <c r="I2" t="n">
-        <v>807146.5996900066</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="L2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="M2" t="n">
         <v>807146.5996900062</v>
       </c>
-      <c r="K2" t="n">
-        <v>807146.5996900062</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>807146.5996900065</v>
-      </c>
-      <c r="M2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="N2" t="n">
-        <v>807146.5996900063</v>
       </c>
       <c r="O2" t="n">
         <v>807146.5996900063</v>
       </c>
       <c r="P2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900063</v>
       </c>
     </row>
     <row r="3">
@@ -26365,31 +26365,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>944372.7777577088</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,10 +26404,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>6.548361852765082e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26426,19 +26426,19 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670409</v>
       </c>
       <c r="F4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670491</v>
       </c>
       <c r="G4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670438</v>
       </c>
       <c r="H4" t="n">
+        <v>5067.592601670414</v>
+      </c>
+      <c r="I4" t="n">
         <v>5067.592601670438</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5067.592601670437</v>
       </c>
       <c r="J4" t="n">
         <v>5067.592601670437</v>
@@ -26456,10 +26456,10 @@
         <v>5067.592601670437</v>
       </c>
       <c r="O4" t="n">
-        <v>5067.592601670489</v>
+        <v>5067.592601670438</v>
       </c>
       <c r="P4" t="n">
-        <v>5067.592601670438</v>
+        <v>5067.592601670437</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-52849.69334140213</v>
       </c>
       <c r="C6" t="n">
+        <v>537118.1858731422</v>
+      </c>
+      <c r="D6" t="n">
         <v>537118.1858731423</v>
       </c>
-      <c r="D6" t="n">
-        <v>537118.185873142</v>
-      </c>
       <c r="E6" t="n">
-        <v>-243416.3004932798</v>
+        <v>-243763.679747637</v>
       </c>
       <c r="F6" t="n">
-        <v>700956.4772644286</v>
+        <v>700609.098010072</v>
       </c>
       <c r="G6" t="n">
-        <v>700956.4772644287</v>
+        <v>700609.0980100718</v>
       </c>
       <c r="H6" t="n">
-        <v>700956.4772644289</v>
+        <v>700609.0980100717</v>
       </c>
       <c r="I6" t="n">
-        <v>700956.4772644291</v>
+        <v>700609.0980100717</v>
       </c>
       <c r="J6" t="n">
-        <v>524533.2580718357</v>
+        <v>524185.8788174791</v>
       </c>
       <c r="K6" t="n">
-        <v>700956.4772644287</v>
+        <v>700609.0980100719</v>
       </c>
       <c r="L6" t="n">
-        <v>700956.477264429</v>
+        <v>700609.0980100717</v>
       </c>
       <c r="M6" t="n">
-        <v>576747.9665563701</v>
+        <v>576400.5873020133</v>
       </c>
       <c r="N6" t="n">
-        <v>700956.4772644289</v>
+        <v>700609.098010072</v>
       </c>
       <c r="O6" t="n">
-        <v>700956.4772644285</v>
+        <v>700609.0980100719</v>
       </c>
       <c r="P6" t="n">
-        <v>700956.4772644285</v>
+        <v>700609.0980100719</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26724,10 +26724,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,10 +26795,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26959,26 +26959,26 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>990.2318361245871</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="E3" t="n">
-        <v>990.2318361245872</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450929</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450929</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450929</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>280.8746107643136</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>69.33174441270472</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,25 +27426,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27539,28 +27539,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27593,16 +27593,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>131.0703856053969</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27618,19 +27618,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>221.0312760636893</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27672,16 +27672,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>106.7500797718391</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>59.57491680833779</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27827,13 +27827,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>103.6006630907643</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>230.0128308663965</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>39.0628450911736</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>138.7724663303898</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28070,7 +28070,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>119.140448430554</v>
       </c>
     </row>
     <row r="11">
@@ -28386,7 +28386,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.181774678116199e-12</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -30459,25 +30459,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31521,43 +31521,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>377.6350660745949</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>583.1096135868572</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32317,10 +32317,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32329,16 +32329,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>360.9226811202611</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P21" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,22 +32791,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209194</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>606.5820696732821</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33028,25 +33028,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>370.9642309107746</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33271,22 +33271,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>575.5951359912046</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>333.9544784328825</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33505,7 +33505,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33520,7 +33520,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33739,22 +33739,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>652.0478969157701</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34222,13 +34222,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34450,22 +34450,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>248.7449369209194</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>575.5951359912046</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>401.1632560839189</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,25 +35494,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>235.5010321525766</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,28 +35728,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>440.9755796648388</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35965,10 +35965,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,16 +35977,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,22 +36205,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P21" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>463.9858252288377</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>228.3679864663302</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36919,22 +36919,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>433.4611020691863</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>191.358233988438</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37153,7 +37153,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37168,7 +37168,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37326,7 +37326,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37387,22 +37387,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>509.9138629937518</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37557,7 +37557,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37785,7 +37785,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M41" t="n">
         <v>735.3001107902948</v>
@@ -37870,13 +37870,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>110.1905571410452</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>433.4611020691863</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_7_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_7_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4111829.655974161</v>
+        <v>4113590.186276945</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>59.66385641544559</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -898,22 +898,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>133.6517655569937</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>78.40904800482109</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -958,10 +958,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.2570633735995</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>25.31590541686237</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>112.8684711536877</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>118.846029740213</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,13 +1293,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>120.2570633735996</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.44420492154083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560542</v>
+        <v>386.2379386560545</v>
       </c>
     </row>
     <row r="12">
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>83.06560892428168</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.702514956955</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1666,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1779,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>33.82891891787546</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H19" t="n">
-        <v>10.63412424768206</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2414,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179931</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2566,10 +2566,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187844</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2721,7 +2721,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>36.43062059490425</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>105.6507867899569</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>28.75188085812005</v>
+        <v>95.12712756824166</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3277,10 +3277,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>125.8152577453148</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3483,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>180.0179497934419</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>1.799772605716112</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -3717,16 +3717,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>185.0663491738889</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3796,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881277</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0.03099717513950509</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,16 +4137,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,13 +4191,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>245.8796921214428</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4412,13 +4412,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
         <v>667.8624625746712</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>982.8165910026955</v>
+        <v>512.2786438284559</v>
       </c>
       <c r="C5" t="n">
-        <v>613.8540740622839</v>
+        <v>512.2786438284559</v>
       </c>
       <c r="D5" t="n">
-        <v>478.8522906713811</v>
+        <v>154.0129452217054</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>154.0129452217054</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>147.0674444725019</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>133.1440404110928</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2112.324418312743</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="W5" t="n">
-        <v>1759.555763042629</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="X5" t="n">
-        <v>1759.555763042629</v>
+        <v>1289.017815868389</v>
       </c>
       <c r="Y5" t="n">
-        <v>1369.416431066817</v>
+        <v>898.8784838925776</v>
       </c>
     </row>
     <row r="6">
@@ -4643,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4652,10 +4652,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>351.9727148150933</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C7" t="n">
-        <v>351.9727148150933</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4761,16 +4761,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1705.877315537684</v>
+        <v>1745.334734821698</v>
       </c>
       <c r="C8" t="n">
-        <v>1336.914798597272</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D8" t="n">
-        <v>978.649099990522</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>592.8608473922777</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>181.8749426026702</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>167.9515385412611</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>167.9515385412611</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2522.073906861631</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2522.073906861631</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2522.073906861631</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>2522.073906861631</v>
       </c>
       <c r="W8" t="n">
-        <v>2465.942913862886</v>
+        <v>2522.073906861631</v>
       </c>
       <c r="X8" t="n">
-        <v>2092.477155601806</v>
+        <v>2522.073906861631</v>
       </c>
       <c r="Y8" t="n">
-        <v>2092.477155601806</v>
+        <v>2131.93457488582</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4904,22 +4904,22 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>372.9958041606071</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="C10" t="n">
-        <v>204.0596212327002</v>
+        <v>351.9727148150932</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -5007,7 +5007,7 @@
         <v>473.4444960005474</v>
       </c>
       <c r="Y10" t="n">
-        <v>372.9958041606071</v>
+        <v>473.4444960005474</v>
       </c>
     </row>
     <row r="11">
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5062,31 +5062,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5129,13 +5129,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636218</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,22 +5266,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111704</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,10 +5290,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5305,22 +5305,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5369,13 +5369,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="17">
@@ -5497,16 +5497,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5515,19 +5515,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5597,22 +5597,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>251.562654109227</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>800.5007694647277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>631.5645865368208</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>481.447947124485</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>333.5348535420919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>186.6449060441816</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>186.6449060441816</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5749,16 +5749,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5846,10 +5846,10 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5977,40 +5977,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6068,25 +6068,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452613</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718132</v>
+        <v>716.6687843969311</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6126,16 +6126,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6147,31 +6147,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
         <v>2254.869721166297</v>
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="27">
@@ -6299,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>577.388077746847</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310022</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2379.917379832663</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>2273.199413378161</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V28" t="n">
-        <v>2018.514925172274</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="29">
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6551,16 +6551,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1501.8401750111</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2129.438138565707</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6600,22 +6600,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6694,16 +6694,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6782,22 +6782,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
         <v>484.8112968429803</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111729</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332388</v>
@@ -6952,16 +6952,16 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245706</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>763.7541388327643</v>
+        <v>653.7474797708873</v>
       </c>
       <c r="C37" t="n">
-        <v>594.8179559048574</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>444.7013164925216</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>444.7013164925216</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>444.7013164925216</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7122,25 +7122,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741512</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704551</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806534</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y37" t="n">
-        <v>945.402603663004</v>
+        <v>835.395944601127</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C38" t="n">
         <v>1948.813509611463</v>
@@ -7168,10 +7168,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7198,25 +7198,25 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7365,19 +7365,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1790.525374274257</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1790.525374274257</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7390,16 +7390,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168622</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,7 +7423,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7444,16 +7444,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7502,10 +7502,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1670.092171589158</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2222.001901828445</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>801.6605733532803</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>983.30903818352</v>
       </c>
     </row>
     <row r="44">
@@ -7639,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7730,22 +7730,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M45" t="n">
-        <v>1501.8401750111</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N45" t="n">
-        <v>2129.438138565707</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1729.097755135313</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8300,13 +8300,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747121</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>1.392663762089796e-12</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>1.477928890381008e-12</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>65.54986409393068</v>
+        <v>121.5862749664508</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>191.8807364711617</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H19" t="n">
-        <v>129.6605885985418</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24609,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>110.0033420516649</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>138.4949402405078</v>
+        <v>72.11969353038617</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>39.70888054695402</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>72.11969353038606</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25605,16 +25605,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>101.1181252153552</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25794,7 +25794,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5536561769553</v>
       </c>
     </row>
     <row r="44">
@@ -26025,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>117.6820817884486</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26079,13 +26079,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>40.30478226780133</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>609629.557522591</v>
+        <v>609629.5575225909</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>609629.557522591</v>
+        <v>609629.5575225909</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>609629.557522591</v>
+        <v>609629.5575225909</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>609629.557522591</v>
+        <v>609629.5575225909</v>
       </c>
     </row>
   </sheetData>
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642834</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.769864283</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.769864283</v>
       </c>
       <c r="E2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.599690006</v>
       </c>
       <c r="F2" t="n">
-        <v>807146.5996900066</v>
+        <v>807146.599690006</v>
       </c>
       <c r="G2" t="n">
         <v>807146.5996900062</v>
       </c>
       <c r="H2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="I2" t="n">
         <v>807146.5996900062</v>
-      </c>
-      <c r="I2" t="n">
-        <v>807146.5996900061</v>
       </c>
       <c r="J2" t="n">
         <v>807146.5996900063</v>
@@ -26343,19 +26343,19 @@
         <v>807146.5996900063</v>
       </c>
       <c r="L2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900063</v>
       </c>
       <c r="M2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="N2" t="n">
         <v>807146.5996900062</v>
       </c>
-      <c r="N2" t="n">
-        <v>807146.5996900065</v>
-      </c>
       <c r="O2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="P2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.5996900062</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>944372.7777577088</v>
+        <v>944372.7777577091</v>
       </c>
       <c r="F3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>2.60042306972432e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,16 +26398,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080585</v>
+        <v>124208.5107080586</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>5.229288266773751e-11</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26426,22 +26426,22 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>5067.592601670409</v>
+        <v>5067.592601670396</v>
       </c>
       <c r="F4" t="n">
-        <v>5067.592601670491</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="G4" t="n">
-        <v>5067.592601670438</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="H4" t="n">
-        <v>5067.592601670414</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="I4" t="n">
-        <v>5067.592601670438</v>
+        <v>5067.592601670456</v>
       </c>
       <c r="J4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.59260167054</v>
       </c>
       <c r="K4" t="n">
         <v>5067.592601670437</v>
@@ -26450,13 +26450,13 @@
         <v>5067.592601670437</v>
       </c>
       <c r="M4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670375</v>
       </c>
       <c r="N4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670421</v>
       </c>
       <c r="O4" t="n">
-        <v>5067.592601670438</v>
+        <v>5067.59260167048</v>
       </c>
       <c r="P4" t="n">
         <v>5067.592601670437</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-52849.69334140213</v>
+        <v>-52849.69334140216</v>
       </c>
       <c r="C6" t="n">
-        <v>537118.1858731422</v>
+        <v>537118.1858731421</v>
       </c>
       <c r="D6" t="n">
-        <v>537118.1858731423</v>
+        <v>537118.1858731421</v>
       </c>
       <c r="E6" t="n">
-        <v>-243763.679747637</v>
+        <v>-243451.0384187164</v>
       </c>
       <c r="F6" t="n">
-        <v>700609.098010072</v>
+        <v>700921.7393389929</v>
       </c>
       <c r="G6" t="n">
-        <v>700609.0980100718</v>
+        <v>700921.7393389933</v>
       </c>
       <c r="H6" t="n">
-        <v>700609.0980100717</v>
+        <v>700921.7393389929</v>
       </c>
       <c r="I6" t="n">
-        <v>700609.0980100717</v>
+        <v>700921.7393389932</v>
       </c>
       <c r="J6" t="n">
-        <v>524185.8788174791</v>
+        <v>524498.5201464002</v>
       </c>
       <c r="K6" t="n">
-        <v>700609.0980100719</v>
+        <v>700921.7393389932</v>
       </c>
       <c r="L6" t="n">
-        <v>700609.0980100717</v>
+        <v>700921.7393389932</v>
       </c>
       <c r="M6" t="n">
-        <v>576400.5873020133</v>
+        <v>576713.2286309346</v>
       </c>
       <c r="N6" t="n">
-        <v>700609.098010072</v>
+        <v>700921.7393389931</v>
       </c>
       <c r="O6" t="n">
-        <v>700609.0980100719</v>
+        <v>700921.739338993</v>
       </c>
       <c r="P6" t="n">
-        <v>700609.0980100719</v>
+        <v>700921.739338993</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26724,7 +26724,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26792,13 +26792,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26822,10 +26822,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.536610333467188e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>990.2318361245871</v>
+        <v>990.2318361245874</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,31 +26977,31 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450931</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450933</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450931</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>107.5829646831822</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27618,22 +27618,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>221.0312760636893</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>245.513724759536</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27678,10 +27678,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.57491680833779</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>109.6497163754759</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27833,7 +27833,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>39.0628450911736</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>55.56968306875854</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,13 +28013,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>46.98975772502827</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>119.140448430554</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28386,7 +28386,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>1.181774678116199e-12</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -29289,7 +29289,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -30036,10 +30036,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>-1.340509608730488e-15</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>-6.501057674310801e-14</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30276,7 +30276,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>-4.815445386617721e-13</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30516,7 +30516,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>9.28537247091299e-13</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>339.9772972286971</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>340.4395077511227</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>146.0225991093089</v>
       </c>
       <c r="L18" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32335,7 +32335,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>164.9290651940687</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>248.7449369209194</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>620.1193660647502</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,46 +32861,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,37 +32937,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32976,10 +32976,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33025,25 +33025,25 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200311</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,10 +33052,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33101,28 +33101,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33131,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33271,19 +33271,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>575.5951359912046</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>370.9642309107746</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33502,25 +33502,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>370.9642309107746</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33739,13 +33739,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>175.6052721551106</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33754,10 +33754,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -34222,13 +34222,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>468.3778278510275</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34450,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>440.316328560036</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>575.5951359912046</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,22 +35014,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35266,13 +35266,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,22 +35494,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>197.8432633066788</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>197.8432633066783</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,22 +35731,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35965,16 +35965,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>8.181160134949948</v>
       </c>
       <c r="L18" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35983,7 +35983,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,22 +36205,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>22.33282074962425</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>477.9853321427319</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L27" t="n">
-        <v>110.1905571410453</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366978</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36761,19 +36761,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36843,7 +36843,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
         <v>696.488651224316</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,19 +36919,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>433.4611020691863</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37083,7 +37083,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
@@ -37150,25 +37150,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396434</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37387,13 +37387,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>37.76383318075158</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37402,10 +37402,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37785,7 +37785,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
         <v>735.3001107902948</v>
@@ -37870,13 +37870,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>334.4034204366973</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>302.474889585677</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>433.4611020691863</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
